--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1677.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1677.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.413859376300406</v>
+        <v>2.052105665206909</v>
       </c>
       <c r="B1">
-        <v>2.548287438867338</v>
+        <v>3.364169836044312</v>
       </c>
       <c r="C1">
-        <v>2.069644924028345</v>
+        <v>1.991514563560486</v>
       </c>
       <c r="D1">
-        <v>1.937436392137394</v>
+        <v>1.520692944526672</v>
       </c>
       <c r="E1">
-        <v>1.680680219036529</v>
+        <v>1.359121441841125</v>
       </c>
     </row>
   </sheetData>
